--- a/xlsx/八国集团_intext.xlsx
+++ b/xlsx/八国集团_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
   <si>
     <t>八国集团</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Group of Eight</t>
   </si>
   <si>
-    <t>政策_政策_美國_八国集团</t>
+    <t>政策_政策_美国_八国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%91%AA%E7%B4%90%E8%80%B6%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E5%AE%8F</t>
   </si>
   <si>
-    <t>埃瑪紐耶爾·馬克宏</t>
+    <t>埃玛纽耶尔·马克宏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%9C%9F%E8%92%82%E6%B4%9B%E5%B0%BC</t>
   </si>
   <si>
-    <t>保羅·真蒂洛尼</t>
+    <t>保罗·真蒂洛尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%9D%9C%E9%AD%AF%E5%A4%9A</t>
   </si>
   <si>
-    <t>賈斯汀·杜魯多</t>
+    <t>贾斯汀·杜鲁多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E6%99%AE%E4%BA%AC</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%9C%96%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>唐納德·圖斯克</t>
+    <t>唐纳德·图斯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%A7%94%E5%91%98%E4%BC%9A%E4%B8%BB%E5%B8%AD</t>
@@ -179,33 +179,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>現代世界</t>
+    <t>现代世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%80%B2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>先進國家</t>
+    <t>先进国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2014年克里米亞危機</t>
+    <t>2014年克里米亚危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>克里米亞半島</t>
+    <t>克里米亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E5%B7%B4%E6%96%AF%E6%88%98%E4%BA%89</t>
@@ -245,19 +242,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
+    <t>匹兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·歐巴馬</t>
+    <t>巴拉克·欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -275,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲共同體</t>
+    <t>欧洲共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%A5%91</t>
@@ -287,57 +281,51 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
+    <t>布鲁塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>克里米亞</t>
+    <t>克里米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
   </si>
   <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -347,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8E%B1%E9%87%8C%C2%B7%E5%90%89%E6%96%AF%E5%8D%A1%E5%B0%94%C2%B7%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
@@ -401,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E7%A9%86%E7%89%B9%C2%B7%E6%96%BD%E5%AF%86%E7%89%B9</t>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E5%88%87%E6%96%AF%E7%A7%91%C2%B7%E7%A7%91%E8%A5%BF%E5%8A%A0</t>
@@ -461,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD</t>
   </si>
   <si>
-    <t>凡爾賽</t>
+    <t>凡尔赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
@@ -521,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -629,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -671,19 +659,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%B7%E5%B8%82</t>
   </si>
   <si>
-    <t>名護市</t>
+    <t>名护市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%82%A3%E4%BA%9E</t>
   </si>
   <si>
-    <t>熱那亞</t>
+    <t>热那亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E5%A1%94%E7%9C%81</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B6%AD%E6%98%82%E8%90%8A%E7%8F%AD</t>
   </si>
   <si>
-    <t>埃維昂萊班</t>
+    <t>埃维昂莱班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC30%E5%B1%8A%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E9%A6%96%E8%84%91%E4%BC%9A%E8%AE%AE</t>
@@ -731,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC32%E5%B1%8A%E5%85%AB%E5%9B%BD%E9%A6%96%E8%84%91%E9%AB%98%E5%B3%B0%E4%BC%9A%E8%AE%AE</t>
@@ -755,9 +743,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E5%B0%94</t>
   </si>
   <si>
-    <t>安格拉·默克尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%88%A9%E6%A0%B9%E8%BE%BE%E5%A7%86</t>
   </si>
   <si>
@@ -791,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E7%88%BA%E6%B9%96%E7%94%BA</t>
   </si>
   <si>
-    <t>洞爺湖町</t>
+    <t>洞爷湖町</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC35%E5%B1%8A%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E9%A6%96%E8%84%91%E4%BC%9A%E8%AE%AE</t>
@@ -803,9 +788,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E7%B6%AD%E5%A5%A7%C2%B7%E8%B2%9D%E7%9B%A7%E6%96%AF%E7%A7%91%E5%B0%BC</t>
   </si>
   <si>
-    <t>西爾維奧·貝盧斯科尼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E9%B2%81%E4%BD%90%E5%A4%A7%E5%8C%BA</t>
   </si>
   <si>
@@ -821,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC36%E5%B1%86%E5%85%AB%E5%9C%8B%E9%9B%86%E5%9C%98%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第36屆八國集團首腦會議</t>
+    <t>第36届八国集团首脑会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%93%88%E7%8F%80</t>
@@ -833,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E8%8C%A8%E7%B6%AD%E7%88%BE_(%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81)</t>
   </si>
   <si>
-    <t>亨茨維爾 (安大略省)</t>
+    <t>亨茨维尔 (安大略省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC37%E5%B1%8A%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E9%A6%96%E8%84%91%E4%BC%9A%E8%AE%AE</t>
@@ -869,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC39%E5%B1%86%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第39屆八大工業國組織會議</t>
+    <t>第39届八大工业国组织会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -881,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
+    <t>北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%A6%AC%E7%B4%8D%E9%83%A1</t>
   </si>
   <si>
-    <t>弗馬納郡</t>
+    <t>弗马纳郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%B0%BC%E6%96%AF%E5%9F%BA%E6%9E%97</t>
@@ -911,13 +893,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
   </si>
   <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC41%E5%B1%86%E4%B8%83%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第41屆七大工業國組織會議</t>
+    <t>第41届七大工业国组织会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A%E5%B7%9E</t>
@@ -941,13 +920,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%89%E4%B8%89</t>
   </si>
   <si>
-    <t>安倍晉三</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%87%8D%E7%B8%A3</t>
   </si>
   <si>
-    <t>三重縣</t>
+    <t>三重县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E6%91%A9%E5%B8%82</t>
@@ -983,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_G8_leaders</t>
@@ -1001,21 +977,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%9D%9C%E9%AD%AF%E9%81%93</t>
   </si>
   <si>
-    <t>賈斯汀·杜魯道</t>
+    <t>贾斯汀·杜鲁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E7%89%B9%E6%9C%97%E6%99%AE</t>
   </si>
   <si>
@@ -1025,19 +995,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%89%B9%E6%96%BD%E6%B3%B0%E5%9B%A0%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>韋特施泰因山脈</t>
+    <t>韦特施泰因山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E7%B1%B3%E6%96%BD-%E5%B8%95%E6%BB%95%E5%9F%BA%E8%88%88</t>
   </si>
   <si>
-    <t>加爾米施-帕滕基興</t>
+    <t>加尔米施-帕滕基兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%BB%95%E7%93%A6%E5%B0%94%E5%BE%B7</t>
@@ -1061,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9F%9F%E5%A4%A7%E5%9B%BD</t>
@@ -1127,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%BD%97%E7%BB%B4%E5%A5%87%C2%B7%E6%99%AE%E4%BA%AC</t>
@@ -1169,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -1205,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -1223,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -1235,13 +1202,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1259,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -1271,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -1289,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1325,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1355,19 +1322,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1391,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1415,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
@@ -1439,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -1457,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1469,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1487,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -1505,19 +1472,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1529,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -1553,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -1571,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1643,19 +1610,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
@@ -1703,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1715,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -1769,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1793,19 +1760,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1895,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1919,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -1931,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -1949,13 +1916,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1979,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -2009,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -2057,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -2105,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -2129,7 +2096,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -2141,19 +2108,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2171,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
@@ -3421,7 +3388,7 @@
         <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -3447,10 +3414,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3476,10 +3443,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -3505,10 +3472,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -3534,10 +3501,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3563,10 +3530,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3592,10 +3559,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -3621,10 +3588,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3650,10 +3617,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3679,10 +3646,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3708,10 +3675,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -3737,10 +3704,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -3766,10 +3733,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3795,10 +3762,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3824,10 +3791,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3853,10 +3820,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3882,10 +3849,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3911,10 +3878,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -3940,10 +3907,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3969,10 +3936,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3998,10 +3965,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4027,10 +3994,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4056,10 +4023,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4085,10 +4052,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -4114,10 +4081,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -4143,10 +4110,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4172,10 +4139,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
         <v>71</v>
-      </c>
-      <c r="F57" t="s">
-        <v>72</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4201,10 +4168,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4230,10 +4197,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4259,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4288,10 +4255,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4317,10 +4284,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4346,10 +4313,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4375,10 +4342,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4404,10 +4371,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -4433,10 +4400,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4462,10 +4429,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4491,10 +4458,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4520,10 +4487,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4549,10 +4516,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4578,10 +4545,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4607,10 +4574,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4636,10 +4603,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4665,10 +4632,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4694,10 +4661,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4723,10 +4690,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4752,10 +4719,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4781,10 +4748,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4810,10 +4777,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4839,10 +4806,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4868,10 +4835,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4897,10 +4864,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4926,10 +4893,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4955,10 +4922,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4984,10 +4951,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5013,10 +4980,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5042,10 +5009,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5071,10 +5038,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5100,10 +5067,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5129,10 +5096,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5158,10 +5125,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5187,10 +5154,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5216,10 +5183,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5245,10 +5212,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5274,10 +5241,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5303,10 +5270,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5332,10 +5299,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5361,10 +5328,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5390,10 +5357,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5419,10 +5386,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5448,10 +5415,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5477,10 +5444,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5506,10 +5473,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5535,10 +5502,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5564,10 +5531,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5593,10 +5560,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5622,10 +5589,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5651,10 +5618,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5680,10 +5647,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5709,10 +5676,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5738,10 +5705,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5767,10 +5734,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5796,10 +5763,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5825,10 +5792,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5854,10 +5821,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5883,10 +5850,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5912,10 +5879,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5941,10 +5908,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5970,10 +5937,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5999,10 +5966,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6028,10 +5995,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6057,10 +6024,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6086,10 +6053,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6115,10 +6082,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6144,10 +6111,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6173,10 +6140,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6202,10 +6169,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6231,10 +6198,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6260,10 +6227,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6289,10 +6256,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6318,10 +6285,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6347,10 +6314,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6376,10 +6343,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6405,10 +6372,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6434,10 +6401,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6463,10 +6430,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6492,10 +6459,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6521,10 +6488,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6550,10 +6517,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6579,10 +6546,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6608,10 +6575,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6637,10 +6604,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6666,10 +6633,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6695,10 +6662,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6724,10 +6691,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6753,10 +6720,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6782,10 +6749,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6811,10 +6778,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6840,10 +6807,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6869,10 +6836,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6898,10 +6865,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6927,10 +6894,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6956,10 +6923,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6985,10 +6952,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7014,10 +6981,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7043,10 +7010,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7072,10 +7039,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7101,10 +7068,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7159,10 +7126,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7188,10 +7155,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7217,10 +7184,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7246,10 +7213,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>64</v>
+      </c>
+      <c r="F163" t="s">
         <v>65</v>
-      </c>
-      <c r="F163" t="s">
-        <v>66</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -7275,10 +7242,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7304,10 +7271,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7333,10 +7300,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7362,10 +7329,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7391,10 +7358,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>18</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7449,10 +7416,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7478,10 +7445,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7536,10 +7503,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7565,10 +7532,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7594,10 +7561,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7623,10 +7590,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7652,10 +7619,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7681,10 +7648,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7710,10 +7677,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7739,10 +7706,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7768,10 +7735,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G181" t="n">
         <v>10</v>
@@ -7797,10 +7764,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7826,10 +7793,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7855,10 +7822,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7884,10 +7851,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7913,10 +7880,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7942,10 +7909,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8000,10 +7967,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8087,10 +8054,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -8116,10 +8083,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8145,10 +8112,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -8174,10 +8141,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8203,10 +8170,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8232,10 +8199,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8261,10 +8228,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8290,10 +8257,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8319,10 +8286,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8348,10 +8315,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8377,10 +8344,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8406,10 +8373,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8435,10 +8402,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8464,10 +8431,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8493,10 +8460,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8522,10 +8489,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8551,10 +8518,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8580,10 +8547,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8609,10 +8576,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8638,13 +8605,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8667,10 +8634,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F212" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8696,10 +8663,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8725,10 +8692,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8754,10 +8721,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8783,10 +8750,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8812,10 +8779,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8841,10 +8808,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8870,10 +8837,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8899,10 +8866,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8928,10 +8895,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8957,10 +8924,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8986,10 +8953,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9015,10 +8982,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9044,10 +9011,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9073,10 +9040,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9102,10 +9069,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9131,10 +9098,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9160,10 +9127,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9189,10 +9156,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9218,10 +9185,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9247,10 +9214,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9276,10 +9243,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9305,10 +9272,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9334,10 +9301,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9363,10 +9330,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9392,10 +9359,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9421,10 +9388,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9450,10 +9417,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9479,10 +9446,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9508,10 +9475,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9537,10 +9504,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9566,10 +9533,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9595,10 +9562,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9624,10 +9591,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9653,10 +9620,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9682,10 +9649,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9711,10 +9678,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -9740,10 +9707,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F249" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9769,10 +9736,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9798,10 +9765,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9827,10 +9794,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9856,10 +9823,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9885,10 +9852,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9914,10 +9881,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9943,10 +9910,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9972,10 +9939,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10001,10 +9968,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10030,10 +9997,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10059,10 +10026,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10088,10 +10055,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10117,10 +10084,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10146,10 +10113,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10175,10 +10142,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10204,10 +10171,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10233,10 +10200,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10262,10 +10229,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10291,10 +10258,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10320,10 +10287,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10378,10 +10345,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10407,10 +10374,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10436,10 +10403,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F273" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10465,10 +10432,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10494,13 +10461,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10523,10 +10490,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10552,10 +10519,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10581,10 +10548,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10610,10 +10577,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10639,10 +10606,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10668,10 +10635,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10697,10 +10664,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10726,10 +10693,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10755,10 +10722,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10784,10 +10751,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10813,10 +10780,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10842,10 +10809,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10871,10 +10838,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10900,10 +10867,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10929,10 +10896,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10958,10 +10925,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10987,10 +10954,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11016,10 +10983,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11045,10 +11012,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11074,10 +11041,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11103,10 +11070,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11132,10 +11099,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11161,10 +11128,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11190,10 +11157,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11219,10 +11186,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11248,10 +11215,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11277,13 +11244,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11306,10 +11273,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11335,10 +11302,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11364,10 +11331,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11393,10 +11360,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11422,10 +11389,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11451,10 +11418,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11480,10 +11447,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11509,10 +11476,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11538,10 +11505,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11567,10 +11534,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11596,10 +11563,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11625,10 +11592,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11654,10 +11621,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11683,10 +11650,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11712,10 +11679,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11741,10 +11708,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11770,10 +11737,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11799,10 +11766,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11828,10 +11795,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11857,10 +11824,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11886,10 +11853,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11915,10 +11882,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11944,10 +11911,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11973,10 +11940,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12002,10 +11969,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12031,10 +11998,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12060,10 +12027,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12089,10 +12056,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12118,10 +12085,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12147,10 +12114,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12176,10 +12143,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12205,10 +12172,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12234,10 +12201,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12263,10 +12230,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12292,10 +12259,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12321,10 +12288,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12350,10 +12317,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12379,10 +12346,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12408,10 +12375,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12437,10 +12404,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12466,10 +12433,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12495,10 +12462,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12524,10 +12491,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12553,10 +12520,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12582,10 +12549,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12611,10 +12578,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12640,10 +12607,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12669,10 +12636,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12698,10 +12665,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12727,10 +12694,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12756,10 +12723,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12785,10 +12752,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12814,10 +12781,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12843,10 +12810,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F356" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12872,10 +12839,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12901,10 +12868,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F358" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12930,10 +12897,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12959,10 +12926,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12988,10 +12955,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13017,10 +12984,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13046,10 +13013,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13075,10 +13042,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13104,10 +13071,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13133,10 +13100,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13162,10 +13129,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13191,10 +13158,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13220,10 +13187,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13249,10 +13216,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -13278,10 +13245,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13307,10 +13274,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13336,10 +13303,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13365,10 +13332,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G374" t="n">
         <v>16</v>
@@ -13394,10 +13361,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F375" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
